--- a/pm-project-backdoor/API描述与分配.xlsx
+++ b/pm-project-backdoor/API描述与分配.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Idea-workspace\PMforGIT\SoftwareProjectManagerBackdoor\pm-project-backdoor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10259\Desktop\软件项目管理项目\后端项目\SoftwareProjectManagerBackdoor\pm-project-backdoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318E3DD-2A05-4D3A-B841-7A2E94B7DECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEE1110D-7B8E-4B43-8F8A-137C9ED81150}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,15 +85,6 @@
     <t>/communication</t>
   </si>
   <si>
-    <t>/studentAccess</t>
-  </si>
-  <si>
-    <t>/groupAccess</t>
-  </si>
-  <si>
-    <t>/fileAccess</t>
-  </si>
-  <si>
     <t>/project</t>
   </si>
   <si>
@@ -131,13 +121,25 @@
   </si>
   <si>
     <t>返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/studentAssess</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/groupAssess</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fileAssess</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -367,6 +369,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -378,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,23 +704,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25DCB40-8B66-4F71-891C-86465B6EE65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" thickBot="1">
+    <row r="1" spans="1:12" ht="39" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -739,12 +741,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:12" ht="16.8" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -754,7 +756,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="14.4">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -762,17 +764,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="12"/>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4">
+      <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -782,10 +784,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="12"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.4">
+      <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -795,10 +797,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="12"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.4">
+      <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -808,10 +810,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="8"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
+      <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -821,9 +823,9 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -831,15 +833,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:12" ht="14.4">
+      <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -854,8 +856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:12" ht="14.4">
+      <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -867,8 +869,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
+      <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -880,7 +882,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -888,15 +890,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:12" ht="14.4">
+      <c r="A13" s="8"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -908,8 +910,8 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:12" ht="14.4">
+      <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -921,8 +923,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:12" ht="15" thickBot="1">
+      <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -934,7 +936,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -942,15 +944,15 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:7" ht="14.4">
+      <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -962,8 +964,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:7" ht="14.4">
+      <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
@@ -975,8 +977,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:7" ht="15" thickBot="1">
+      <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -988,25 +990,25 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="8"/>
+      <c r="G20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1">
+      <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
@@ -1018,23 +1020,23 @@
       <c r="F21" s="6"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
@@ -1046,23 +1048,23 @@
       <c r="F23" s="6"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="14.4">
       <c r="A24" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1074,23 +1076,23 @@
       <c r="F25" s="6"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:7" ht="15" thickBot="1">
+      <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1102,27 +1104,27 @@
       <c r="F27" s="6"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+    <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+    <row r="29" spans="1:7" ht="29.4" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1134,16 +1136,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G20:G27"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G20:G27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
